--- a/botZap/clientes.xlsx
+++ b/botZap/clientes.xlsx
@@ -5,22 +5,23 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Clientes" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="folha" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t xml:space="preserve">nome</t>
   </si>
@@ -50,15 +51,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-816];[RED]\-#,##0.00\ [$€-816]"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="166" formatCode="0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00,\€;\-#,##0.00,\€"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -79,8 +83,10 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,7 +131,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -134,20 +140,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -163,9 +201,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="LibreOffice">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
@@ -197,22 +235,22 @@
         <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -220,25 +258,56 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="51000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
-          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -256,12 +325,46 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="20000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
+        </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -275,127 +378,185 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="14.15"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="9" t="n">
         <v>351914971799</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>45321</v>
-      </c>
-      <c r="D2" s="5" t="n">
+      <c r="C2" s="10" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D2" s="11" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="9" t="n">
         <v>351914476689</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>45323</v>
-      </c>
-      <c r="D3" s="5" t="n">
+      <c r="C3" s="10" t="n">
+        <v>45293</v>
+      </c>
+      <c r="D3" s="11" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="9" t="n">
         <v>351914482047</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>45262</v>
-      </c>
-      <c r="D4" s="5" t="n">
+      <c r="C4" s="10" t="n">
+        <v>45294</v>
+      </c>
+      <c r="D4" s="11" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="9" t="n">
         <v>351914479849</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>45354</v>
-      </c>
-      <c r="D5" s="5" t="n">
+      <c r="C5" s="10" t="n">
+        <v>45295</v>
+      </c>
+      <c r="D5" s="11" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.15"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>351914479849</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <v>45295</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>